--- a/ideas.xlsx
+++ b/ideas.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\VCS\TPSGame\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1FE76786-A467-43B0-AE8B-3C107A10540F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BB7A01D5-8D66-4E05-8CCF-D32419C5441F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="5172" yWindow="3900" windowWidth="16824" windowHeight="11628" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="19">
   <si>
     <t>Main</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -80,6 +80,26 @@
   </si>
   <si>
     <t>Other species</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Heroine</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>stera</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>One Mission</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>A Empty ground</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>类都市天际线，阶段性拓地</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -405,14 +425,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="D2:G14"/>
+  <dimension ref="D2:G19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F14" sqref="F14"/>
+      <selection activeCell="G21" sqref="G21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
+    <col min="4" max="4" width="13.5546875" customWidth="1"/>
     <col min="5" max="5" width="15.21875" customWidth="1"/>
     <col min="6" max="6" width="19.109375" customWidth="1"/>
   </cols>
@@ -481,6 +502,25 @@
         <v>13</v>
       </c>
     </row>
+    <row r="17" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="D17" t="s">
+        <v>14</v>
+      </c>
+      <c r="E17" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="19" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="D19" t="s">
+        <v>16</v>
+      </c>
+      <c r="E19" t="s">
+        <v>17</v>
+      </c>
+      <c r="F19" t="s">
+        <v>18</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
